--- a/data/japan_costs/solar_japan.xlsx
+++ b/data/japan_costs/solar_japan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="995" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="r12_2018" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>r12</t>
   </si>
@@ -281,6 +281,14 @@
     <rPh sb="21" eb="23">
       <t>ドウコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>investment cost [MUSD/GW]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O&amp;M cost [MUSD/GWh]</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -288,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -324,13 +332,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +392,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -844,15 +876,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I32"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="16.4140625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -920,107 +953,128 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <f>2.2*10^3</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
+        <f>56*1000000/1000000</f>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>2016</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>2.7</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>36</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>38</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1028,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/data/japan_costs/solar_japan.xlsx
+++ b/data/japan_costs/solar_japan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="r12_2018" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>r12</t>
   </si>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>19(26)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>O&amp;M cost: 56 [$/kW/h] (20years of operation)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -254,18 +250,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2 (ref17)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3 (ref37)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>resources and energy investment</t>
-  </si>
-  <si>
-    <t>https://www.enecho.meti.go.jp/about/whitepaper/2018pdf/whitepaper2018pdf_2_1.pdf</t>
   </si>
   <si>
     <t>エネルギー白書2018　第2部　エネルギー動向</t>
@@ -288,7 +273,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>O&amp;M cost [MUSD/GWh]</t>
+    <t>O&amp;M cost: 56 [$/kW] (20years of operation)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O&amp;M cost [MUSD/GW]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.enecho.meti.go.jp/about/whitepaper/2018pdf/whitepaper2018pdf_2_1.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Innvestment cost and O&amp;M cost are shown in the figure as annotation</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -296,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -344,6 +341,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -376,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +410,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,6 +505,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187485</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1377950" y="1631950"/>
+          <a:ext cx="4695985" cy="3848099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308101" y="5943601"/>
+          <a:ext cx="4248150" cy="4473296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O14"/>
+  <dimension ref="A3:O52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -769,7 +883,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -790,42 +904,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9">
+    <row r="47" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="4">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C47" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="3" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" t="s">
         <v>11</v>
       </c>
     </row>
@@ -833,10 +947,11 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="D13" r:id="rId2"/>
+    <hyperlink ref="D51" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -844,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -876,10 +991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -888,7 +1003,7 @@
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2">
         <v>1</v>
       </c>
@@ -896,178 +1011,173 @@
         <v>42979</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <f>2.2*10^3</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
         <f>56*1000000/1000000</f>
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>2016</v>
+      </c>
+      <c r="D18">
+        <v>2.7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25">
-        <v>2016</v>
-      </c>
-      <c r="D25">
-        <v>2.7</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H23" t="s">
         <v>36</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="I25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33">
+      <c r="I26">
         <v>37</v>
       </c>
     </row>
@@ -1080,31 +1190,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C5"/>
+  <dimension ref="B3:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="9">
         <v>43252</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/japan_costs/solar_japan.xlsx
+++ b/data/japan_costs/solar_japan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>r12</t>
   </si>
@@ -286,6 +286,10 @@
   </si>
   <si>
     <t>Innvestment cost and O&amp;M cost are shown in the figure as annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*used in simulation</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -993,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1003,7 +1007,7 @@
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1014,32 +1018,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1058,12 +1062,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
@@ -1072,8 +1076,11 @@
         <f>2.2*10^3</f>
         <v>2200</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
@@ -1081,6 +1088,9 @@
       <c r="E15" s="8">
         <f>56*1000000/1000000</f>
         <v>56</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
